--- a/carbonFootprintCalcPapercup.xlsx
+++ b/carbonFootprintCalcPapercup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="691" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="691" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Framework" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>in hwy</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Source: https://cta.ornl.gov/data/chapter11.shtml</t>
   </si>
   <si>
-    <t>CO2 absorbtion time by a fully grown tree</t>
-  </si>
-  <si>
     <t>Car mileage (kpl)</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>days</t>
+  </si>
+  <si>
+    <t>CO2 absorbtion time by a 15 ft wide sugar maple tree</t>
+  </si>
+  <si>
+    <t>Source: http://www.ecosmartlandscapes.org - need to create an account to calculate sequesteration rates of different types of trees</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -335,6 +338,7 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -342,7 +346,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -850,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,12 +870,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -877,29 +884,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="10">
         <v>1.1000000000000001</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="10">
         <v>38</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15">
@@ -907,7 +914,7 @@
         <v>0.51795174999999993</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -926,10 +933,10 @@
       </c>
       <c r="D9" s="19">
         <f>D6/Constants!A27</f>
-        <v>8.6848763666850406</v>
+        <v>4.1687406560088194</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -945,15 +952,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
@@ -1168,120 +1176,124 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="11" t="s">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="1">
+      <c r="B16" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="11"/>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6">
       <c r="A21">
         <f>A20*0.4535</f>
-        <v>21.768000000000001</v>
+        <v>45.35</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+    <row r="23" spans="1:6">
+      <c r="A23" s="20">
         <f>A20/12</f>
-        <v>4</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+    <row r="24" spans="1:6">
+      <c r="A24" s="20">
         <f>A21/12</f>
-        <v>1.8140000000000001</v>
+        <v>3.7791666666666668</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26" s="9">
         <f>A20/365</f>
-        <v>0.13150684931506848</v>
+        <v>0.27397260273972601</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="A27" s="9">
         <f>A21/365</f>
-        <v>5.9638356164383566E-2</v>
+        <v>0.12424657534246576</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="1:4">
+    <row r="29" spans="1:6">
+      <c r="A29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <f>32*1.6093/3.785</f>
+        <v>13.60570673712021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1">
-        <v>13.60570673712021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1">
+        <f>24*1.6093/3.785</f>
         <v>10.204280052840158</v>
       </c>
     </row>
